--- a/Final_project/IDD/Test/Action Accel.xlsx
+++ b/Final_project/IDD/Test/Action Accel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="7">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E38DD89-B39F-4A65-AD47-0BD0DDE55DA9}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -439,13 +439,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>-1.6279999999999999</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="B2">
-        <v>-8.4000000000000005E-2</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="C2">
-        <v>2.044</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -453,13 +453,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>-1.6279999999999999</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="B3">
-        <v>-7.5999999999999998E-2</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="C3">
-        <v>2.044</v>
+        <v>0.216</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -467,13 +467,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>-1.6120000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="B4">
-        <v>-8.7999999999999995E-2</v>
+        <v>0.12</v>
       </c>
       <c r="C4">
-        <v>2.044</v>
+        <v>0.2</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -481,13 +481,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>-1.6319999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="B5">
-        <v>-7.5999999999999998E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="C5">
-        <v>2.044</v>
+        <v>0.2</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -495,13 +495,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>-1.6240000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="B6">
-        <v>-7.5999999999999998E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="C6">
-        <v>2.044</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -509,13 +509,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>-1.6240000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="B7">
-        <v>-8.4000000000000005E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="C7">
-        <v>2.044</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -523,13 +523,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>-1.6240000000000001</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="B8">
-        <v>-0.1</v>
+        <v>0.104</v>
       </c>
       <c r="C8">
-        <v>2.044</v>
+        <v>0.188</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -537,13 +537,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>-1.6279999999999999</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="B9">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>2.044</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -551,13 +551,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>-1.6319999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="B10">
-        <v>-9.1999999999999998E-2</v>
+        <v>0.124</v>
       </c>
       <c r="C10">
-        <v>2.044</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -565,13 +565,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>-1.62</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="B11">
-        <v>-9.1999999999999998E-2</v>
+        <v>0.124</v>
       </c>
       <c r="C11">
-        <v>2.044</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -579,13 +579,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>-1.6120000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="B12">
-        <v>-0.1</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="C12">
-        <v>2.044</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -593,13 +593,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>-1.6240000000000001</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="B13">
-        <v>-0.108</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="C13">
-        <v>2.044</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -607,223 +607,223 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>-1.62</v>
+        <v>0.62</v>
       </c>
       <c r="B14">
-        <v>-0.104</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="C14">
-        <v>2.044</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>-1.6279999999999999</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="B15">
-        <v>-0.1</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="C15">
-        <v>2.044</v>
+        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>-1.6319999999999999</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="B16">
-        <v>-8.4000000000000005E-2</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="C16">
-        <v>2.044</v>
+        <v>0.16</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>-1.62</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>-9.1999999999999998E-2</v>
+        <v>0.752</v>
       </c>
       <c r="C17">
-        <v>2.044</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>-1.62</v>
+        <v>1.032</v>
       </c>
       <c r="B18">
-        <v>-9.1999999999999998E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C18">
-        <v>2.044</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>-1.6279999999999999</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="B19">
-        <v>-8.4000000000000005E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C19">
-        <v>2.044</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>-1.6240000000000001</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="B20">
-        <v>-8.4000000000000005E-2</v>
+        <v>-0.16</v>
       </c>
       <c r="C20">
-        <v>2.044</v>
+        <v>0.3</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>-1.62</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="B21">
-        <v>-8.7999999999999995E-2</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="C21">
-        <v>2.044</v>
+        <v>0.16</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>-1.62</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="B22">
-        <v>-6.4000000000000001E-2</v>
+        <v>-0.04</v>
       </c>
       <c r="C22">
-        <v>2.044</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>-1.62</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="B23">
-        <v>-0.06</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C23">
-        <v>2.044</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>-1.6240000000000001</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="B24">
-        <v>-0.06</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="C24">
-        <v>2.044</v>
+        <v>0.112</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>-1.6279999999999999</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="B25">
-        <v>-0.08</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C25">
-        <v>2.044</v>
+        <v>0.16</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>-1.6279999999999999</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="B26">
-        <v>-8.4000000000000005E-2</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="C26">
-        <v>2.044</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>-1.64</v>
+        <v>0.7</v>
       </c>
       <c r="B27">
-        <v>-8.7999999999999995E-2</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="C27">
-        <v>2.044</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>-1.6279999999999999</v>
+        <v>1.252</v>
       </c>
       <c r="B28">
-        <v>-6.8000000000000005E-2</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="C28">
-        <v>2.044</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>-1.56</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="B29">
-        <v>-5.1999999999999998E-2</v>
+        <v>-0.112</v>
       </c>
       <c r="C29">
-        <v>2.044</v>
+        <v>0.24</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -831,13 +831,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>-1.38</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="B30">
-        <v>2.8000000000000001E-2</v>
+        <v>-0.20399999999999999</v>
       </c>
       <c r="C30">
-        <v>2.044</v>
+        <v>0.52</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -845,13 +845,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>-1.3879999999999999</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="B31">
-        <v>-4.3999999999999997E-2</v>
+        <v>-5.1999999999999998E-2</v>
       </c>
       <c r="C31">
-        <v>2.044</v>
+        <v>0.124</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -859,13 +859,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>-1.5840000000000001</v>
+        <v>0.752</v>
       </c>
       <c r="B32">
-        <v>-4.8000000000000001E-2</v>
+        <v>-0.6</v>
       </c>
       <c r="C32">
-        <v>2.044</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -873,13 +873,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>-1.984</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="B33">
-        <v>-0.67200000000000004</v>
+        <v>-0.104</v>
       </c>
       <c r="C33">
-        <v>2.044</v>
+        <v>0.04</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -887,13 +887,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>-1.304</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="B34">
-        <v>-0.252</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="C34">
-        <v>2.044</v>
+        <v>0.02</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -901,13 +901,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>-1.288</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="B35">
-        <v>-0.28000000000000003</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="C35">
-        <v>2.044</v>
+        <v>0.124</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -915,13 +915,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>-1.6439999999999999</v>
+        <v>1.004</v>
       </c>
       <c r="B36">
-        <v>0.216</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="C36">
-        <v>2.044</v>
+        <v>0.184</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -929,13 +929,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>-1.488</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="B37">
-        <v>-0.18</v>
+        <v>0.248</v>
       </c>
       <c r="C37">
-        <v>2.044</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -943,13 +943,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>-2.048</v>
+        <v>0.86</v>
       </c>
       <c r="B38">
-        <v>-0.876</v>
+        <v>-0.12</v>
       </c>
       <c r="C38">
-        <v>2.044</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -957,13 +957,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>-1.34</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="B39">
-        <v>0.23200000000000001</v>
+        <v>-0.47199999999999998</v>
       </c>
       <c r="C39">
-        <v>2.044</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -971,13 +971,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>-1.696</v>
+        <v>0.82</v>
       </c>
       <c r="B40">
-        <v>0.39200000000000002</v>
+        <v>-0.156</v>
       </c>
       <c r="C40">
-        <v>2.044</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -985,13 +985,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>-1.8560000000000001</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="B41">
-        <v>-0.56000000000000005</v>
+        <v>-0.44</v>
       </c>
       <c r="C41">
-        <v>2.044</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -999,13 +999,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>-1.6</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="B42">
-        <v>4.8000000000000001E-2</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="C42">
-        <v>2.044</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -1013,13 +1013,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>-1.5920000000000001</v>
+        <v>0.436</v>
       </c>
       <c r="B43">
-        <v>-0.112</v>
+        <v>0.152</v>
       </c>
       <c r="C43">
-        <v>2.044</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
@@ -1027,13 +1027,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>-0.72799999999999998</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="B44">
-        <v>6.4000000000000001E-2</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="C44">
-        <v>2.044</v>
+        <v>0.184</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -1041,13 +1041,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>-1.54</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="B45">
-        <v>-0.312</v>
+        <v>-0.19600000000000001</v>
       </c>
       <c r="C45">
-        <v>2.044</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
@@ -1055,13 +1055,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>-1.464</v>
+        <v>0.88</v>
       </c>
       <c r="B46">
-        <v>0.112</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="C46">
-        <v>2.044</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
@@ -1069,13 +1069,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>-1.26</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="B47">
-        <v>-0.26</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="C47">
-        <v>2.044</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
@@ -1083,13 +1083,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>-1.5</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="B48">
-        <v>-0.38800000000000001</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C48">
-        <v>2.044</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -1097,13 +1097,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>-1.3879999999999999</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="B49">
-        <v>-3.5999999999999997E-2</v>
+        <v>-0.25600000000000001</v>
       </c>
       <c r="C49">
-        <v>2.044</v>
+        <v>0.224</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
@@ -1111,13 +1111,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>-1.5880000000000001</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="B50">
-        <v>0.108</v>
+        <v>-0.216</v>
       </c>
       <c r="C50">
-        <v>2.044</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
@@ -1125,13 +1125,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>-1.6759999999999999</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="B51">
-        <v>-4.3999999999999997E-2</v>
+        <v>-0.14799999999999999</v>
       </c>
       <c r="C51">
-        <v>2.044</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
@@ -1139,13 +1139,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>-1.62</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="B52">
-        <v>-8.7999999999999995E-2</v>
+        <v>-0.216</v>
       </c>
       <c r="C52">
-        <v>2.044</v>
+        <v>0.192</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
@@ -1153,13 +1153,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>-2.044</v>
+        <v>0.72</v>
       </c>
       <c r="B53">
-        <v>-0.76400000000000001</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="C53">
-        <v>2.044</v>
+        <v>0.04</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
@@ -1167,13 +1167,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>-1.46</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="B54">
-        <v>-0.108</v>
+        <v>0.156</v>
       </c>
       <c r="C54">
-        <v>2.044</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
@@ -1181,13 +1181,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>-1.32</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="B55">
-        <v>2.8000000000000001E-2</v>
+        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="C55">
-        <v>2.044</v>
+        <v>2.4E-2</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
@@ -1195,13 +1195,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>-1.56</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="B56">
-        <v>9.1999999999999998E-2</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="C56">
-        <v>2.044</v>
+        <v>0.152</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
@@ -1209,743 +1209,113 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>-1.6120000000000001</v>
+        <v>0</v>
       </c>
       <c r="B57">
-        <v>-6.4000000000000001E-2</v>
+        <v>-1.032</v>
       </c>
       <c r="C57">
-        <v>2.044</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>-1.6240000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="B58">
-        <v>-0.04</v>
+        <v>-1.032</v>
       </c>
       <c r="C58">
-        <v>2.044</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>-1.36</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="B59">
-        <v>2.8000000000000001E-2</v>
+        <v>-1.036</v>
       </c>
       <c r="C59">
-        <v>2.044</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>-1.9079999999999999</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="B60">
-        <v>-0.52</v>
+        <v>-1.036</v>
       </c>
       <c r="C60">
-        <v>2.044</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D60" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>-1.6120000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="B61">
-        <v>-0.06</v>
+        <v>-1.036</v>
       </c>
       <c r="C61">
-        <v>2.044</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>-1.6040000000000001</v>
+        <v>0</v>
       </c>
       <c r="B62">
-        <v>0.152</v>
+        <v>-1.032</v>
       </c>
       <c r="C62">
-        <v>2.044</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>-1.536</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="B63">
-        <v>-0.8</v>
+        <v>-1.032</v>
       </c>
       <c r="C63">
-        <v>2.044</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>-1.464</v>
+        <v>0</v>
       </c>
       <c r="B64">
-        <v>-0.41199999999999998</v>
+        <v>-1.032</v>
       </c>
       <c r="C64">
-        <v>2.044</v>
+        <v>0.02</v>
       </c>
       <c r="D64" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A65">
-        <v>-1.476</v>
-      </c>
-      <c r="B65">
-        <v>0.2</v>
-      </c>
-      <c r="C65">
-        <v>2.044</v>
-      </c>
-      <c r="D65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A66">
-        <v>-1.268</v>
-      </c>
-      <c r="B66">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C66">
-        <v>2.044</v>
-      </c>
-      <c r="D66" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A67">
-        <v>-1.228</v>
-      </c>
-      <c r="B67">
-        <v>-4.3999999999999997E-2</v>
-      </c>
-      <c r="C67">
-        <v>2.044</v>
-      </c>
-      <c r="D67" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A68">
-        <v>-1.64</v>
-      </c>
-      <c r="B68">
-        <v>0.02</v>
-      </c>
-      <c r="C68">
-        <v>2.044</v>
-      </c>
-      <c r="D68" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69">
-        <v>-1.5760000000000001</v>
-      </c>
-      <c r="B69">
-        <v>0.224</v>
-      </c>
-      <c r="C69">
-        <v>2.044</v>
-      </c>
-      <c r="D69" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A70">
-        <v>-1.8160000000000001</v>
-      </c>
-      <c r="B70">
-        <v>-0.24399999999999999</v>
-      </c>
-      <c r="C70">
-        <v>2.044</v>
-      </c>
-      <c r="D70" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A71">
-        <v>-1.992</v>
-      </c>
-      <c r="B71">
-        <v>-0.46800000000000003</v>
-      </c>
-      <c r="C71">
-        <v>2.044</v>
-      </c>
-      <c r="D71" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A72">
-        <v>-1.552</v>
-      </c>
-      <c r="B72">
-        <v>-1.2E-2</v>
-      </c>
-      <c r="C72">
-        <v>2.044</v>
-      </c>
-      <c r="D72" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A73">
-        <v>-1.456</v>
-      </c>
-      <c r="B73">
-        <v>0.312</v>
-      </c>
-      <c r="C73">
-        <v>2.044</v>
-      </c>
-      <c r="D73" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A74">
-        <v>-1.6</v>
-      </c>
-      <c r="B74">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="C74">
-        <v>2.044</v>
-      </c>
-      <c r="D74" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A75">
-        <v>-1.6120000000000001</v>
-      </c>
-      <c r="B75">
-        <v>1.2E-2</v>
-      </c>
-      <c r="C75">
-        <v>2.044</v>
-      </c>
-      <c r="D75" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A76">
-        <v>-1.34</v>
-      </c>
-      <c r="B76">
-        <v>0.152</v>
-      </c>
-      <c r="C76">
-        <v>2.044</v>
-      </c>
-      <c r="D76" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A77">
-        <v>-1.66</v>
-      </c>
-      <c r="B77">
-        <v>-0.26400000000000001</v>
-      </c>
-      <c r="C77">
-        <v>2.044</v>
-      </c>
-      <c r="D77" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A78">
-        <v>-1.3919999999999999</v>
-      </c>
-      <c r="B78">
-        <v>-0.252</v>
-      </c>
-      <c r="C78">
-        <v>2.044</v>
-      </c>
-      <c r="D78" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A79">
-        <v>-1.5</v>
-      </c>
-      <c r="B79">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="C79">
-        <v>2.044</v>
-      </c>
-      <c r="D79" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A80">
-        <v>-1.504</v>
-      </c>
-      <c r="B80">
-        <v>-0.124</v>
-      </c>
-      <c r="C80">
-        <v>2.044</v>
-      </c>
-      <c r="D80" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A81">
-        <v>-1.6240000000000001</v>
-      </c>
-      <c r="B81">
-        <v>-7.5999999999999998E-2</v>
-      </c>
-      <c r="C81">
-        <v>2.044</v>
-      </c>
-      <c r="D81" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A82">
-        <v>-1.6879999999999999</v>
-      </c>
-      <c r="B82">
-        <v>-0.128</v>
-      </c>
-      <c r="C82">
-        <v>2.044</v>
-      </c>
-      <c r="D82" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A83">
-        <v>-1.1679999999999999</v>
-      </c>
-      <c r="B83">
-        <v>0.184</v>
-      </c>
-      <c r="C83">
-        <v>2.044</v>
-      </c>
-      <c r="D83" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A84">
-        <v>-1.74</v>
-      </c>
-      <c r="B84">
-        <v>-0.88</v>
-      </c>
-      <c r="C84">
-        <v>2.044</v>
-      </c>
-      <c r="D84" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A85">
-        <v>-1.732</v>
-      </c>
-      <c r="B85">
-        <v>-2.8000000000000001E-2</v>
-      </c>
-      <c r="C85">
-        <v>2.044</v>
-      </c>
-      <c r="D85" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A86">
-        <v>-1.204</v>
-      </c>
-      <c r="B86">
-        <v>-5.6000000000000001E-2</v>
-      </c>
-      <c r="C86">
-        <v>2.044</v>
-      </c>
-      <c r="D86" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A87">
-        <v>-1.272</v>
-      </c>
-      <c r="B87">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="C87">
-        <v>2.044</v>
-      </c>
-      <c r="D87" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A88">
-        <v>-1.0920000000000001</v>
-      </c>
-      <c r="B88">
-        <v>-0.23200000000000001</v>
-      </c>
-      <c r="C88">
-        <v>2.044</v>
-      </c>
-      <c r="D88" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A89">
-        <v>-1.0960000000000001</v>
-      </c>
-      <c r="B89">
-        <v>1.6E-2</v>
-      </c>
-      <c r="C89">
-        <v>2.044</v>
-      </c>
-      <c r="D89" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A90">
-        <v>-1.3120000000000001</v>
-      </c>
-      <c r="B90">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="C90">
-        <v>2.044</v>
-      </c>
-      <c r="D90" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A91">
-        <v>-1.3759999999999999</v>
-      </c>
-      <c r="B91">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="C91">
-        <v>2.044</v>
-      </c>
-      <c r="D91" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A92">
-        <v>-1.1279999999999999</v>
-      </c>
-      <c r="B92">
-        <v>-1.2E-2</v>
-      </c>
-      <c r="C92">
-        <v>2.044</v>
-      </c>
-      <c r="D92" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A93">
-        <v>-0.98399999999999999</v>
-      </c>
-      <c r="B93">
-        <v>-4.3999999999999997E-2</v>
-      </c>
-      <c r="C93">
-        <v>2.044</v>
-      </c>
-      <c r="D93" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A94">
-        <v>-1.264</v>
-      </c>
-      <c r="B94">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="C94">
-        <v>2.044</v>
-      </c>
-      <c r="D94" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A95">
-        <v>-1.492</v>
-      </c>
-      <c r="B95">
-        <v>-5.1999999999999998E-2</v>
-      </c>
-      <c r="C95">
-        <v>2.044</v>
-      </c>
-      <c r="D95" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A96">
-        <v>-1.012</v>
-      </c>
-      <c r="B96">
-        <v>-6.8000000000000005E-2</v>
-      </c>
-      <c r="C96">
-        <v>2.044</v>
-      </c>
-      <c r="D96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A97">
-        <v>-1</v>
-      </c>
-      <c r="B97">
-        <v>-2.4E-2</v>
-      </c>
-      <c r="C97">
-        <v>2.044</v>
-      </c>
-      <c r="D97" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A98">
-        <v>-1.268</v>
-      </c>
-      <c r="B98">
-        <v>0.152</v>
-      </c>
-      <c r="C98">
-        <v>2.044</v>
-      </c>
-      <c r="D98" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A99">
-        <v>-1.34</v>
-      </c>
-      <c r="B99">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="C99">
-        <v>2.044</v>
-      </c>
-      <c r="D99" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A100">
-        <v>-1.524</v>
-      </c>
-      <c r="B100">
-        <v>-5.1999999999999998E-2</v>
-      </c>
-      <c r="C100">
-        <v>2.044</v>
-      </c>
-      <c r="D100" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A101">
-        <v>-1.5720000000000001</v>
-      </c>
-      <c r="B101">
-        <v>-0.1</v>
-      </c>
-      <c r="C101">
-        <v>2.044</v>
-      </c>
-      <c r="D101" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A102">
-        <v>-1.4</v>
-      </c>
-      <c r="B102">
-        <v>0.108</v>
-      </c>
-      <c r="C102">
-        <v>2.044</v>
-      </c>
-      <c r="D102" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A103">
-        <v>-1.6240000000000001</v>
-      </c>
-      <c r="B103">
-        <v>0.1</v>
-      </c>
-      <c r="C103">
-        <v>2.044</v>
-      </c>
-      <c r="D103" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A104">
-        <v>-1.6</v>
-      </c>
-      <c r="B104">
-        <v>-0.27600000000000002</v>
-      </c>
-      <c r="C104">
-        <v>2.044</v>
-      </c>
-      <c r="D104" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A105">
-        <v>-0.53600000000000003</v>
-      </c>
-      <c r="B105">
-        <v>1.1120000000000001</v>
-      </c>
-      <c r="C105">
-        <v>2.044</v>
-      </c>
-      <c r="D105" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A106">
-        <v>-0.42799999999999999</v>
-      </c>
-      <c r="B106">
-        <v>1.08</v>
-      </c>
-      <c r="C106">
-        <v>2.044</v>
-      </c>
-      <c r="D106" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A107">
-        <v>-0.42399999999999999</v>
-      </c>
-      <c r="B107">
-        <v>1.08</v>
-      </c>
-      <c r="C107">
-        <v>2.044</v>
-      </c>
-      <c r="D107" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A108">
-        <v>-0.42</v>
-      </c>
-      <c r="B108">
-        <v>1.08</v>
-      </c>
-      <c r="C108">
-        <v>2.044</v>
-      </c>
-      <c r="D108" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A109">
-        <v>-0.40799999999999997</v>
-      </c>
-      <c r="B109">
-        <v>1.0880000000000001</v>
-      </c>
-      <c r="C109">
-        <v>2.044</v>
-      </c>
-      <c r="D109" t="s">
         <v>6</v>
       </c>
     </row>
